--- a/biology/Botanique/Spilanthes/Spilanthes.xlsx
+++ b/biology/Botanique/Spilanthes/Spilanthes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Spilanthes est un genre de plante à fleurs de la famille des Asteraceae.
 </t>
@@ -511,13 +523,15 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (7 août 2017)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (7 août 2017) :
 Spilanthes acmella (L.) L.
 Spilanthes oleracea L.
 Spilanthes urens Jacq.
-Selon Catalogue of Life                                   (7 août 2017)[3] :
+Selon Catalogue of Life                                   (7 août 2017) :
 Spilanthes anactina F.Müll.
 Spilanthes costata Benth.
 Spilanthes ghoshinis Sheela
@@ -527,16 +541,16 @@
 Spilanthes paraguayensis R.K. Jansen
 Spilanthes urens Jacq.
 Spilanthes vazhachalensis Sheela
-Selon ITIS      (7 août 2017)[4] :
+Selon ITIS      (7 août 2017) :
 Spilanthes acmella (L.) L.
 Spilanthes oleracea L.
 Spilanthes urens Jacq.
-Selon NCBI  (7 août 2017)[5] :
+Selon NCBI  (7 août 2017) :
 Spilanthes iabadicensis
 Spilanthes nervosa
 Spilanthes paniculata
 Spilanthes urens
-Selon The Plant List            (7 août 2017)[6] :
+Selon The Plant List            (7 août 2017) :
 Spilanthes acmella (L.) L.
 Spilanthes anactina F.Muell.
 Spilanthes beccabunga DC.
@@ -571,7 +585,7 @@
 Spilanthes sessilis Poepp. &amp; Endl.
 Spilanthes subhirsuta DC.
 Spilanthes urens Jacq.
-Selon Tropicos                                           (7 août 2017)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (7 août 2017) (Attention liste brute contenant possiblement des synonymes) :
 Spilanthes abyssinica Schultz-Bipontinus ex A. Richard
 Spilanthes acmella (L.) L.
 Spilanthes affinis Hook. &amp; Arn.
